--- a/Excel/luckDraw.抽取晶片.xlsx
+++ b/Excel/luckDraw.抽取晶片.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B616C72-DA3B-4329-9580-63F3B4A987EE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3154244-C6A9-47A5-9A52-A20FE509B242}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,15 +218,6 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -341,7 +332,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -352,16 +343,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="12" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="12">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -729,158 +719,163 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="9" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>10000</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>101</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>5000</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>102</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="4">
         <v>4000</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>103</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>10000</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>103</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>8000</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>104</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>1500</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>105</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>500</v>
       </c>
     </row>

--- a/Excel/luckDraw.抽取晶片.xlsx
+++ b/Excel/luckDraw.抽取晶片.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B9A6C0-6870-4722-A212-8E323FFA6846}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -15,18 +21,19 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -35,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -50,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>sheet名</t>
   </si>
@@ -140,19 +148,166 @@
   </si>
   <si>
     <t>掉落组3权重</t>
+  </si>
+  <si>
+    <t>blackBox.node</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackBox.dropId</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int:e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>drop_id:ea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落节点</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点掉落组</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,5</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:&gt;</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_id:e&gt;</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1级晶片奖池</t>
+  </si>
+  <si>
+    <t>2级晶片奖池</t>
+  </si>
+  <si>
+    <t>3级晶片奖池</t>
+  </si>
+  <si>
+    <t>4级晶片奖池</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>5级晶片奖池</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1阶装备奖池</t>
+  </si>
+  <si>
+    <t>2阶装备奖池</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3阶装备奖池</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>4阶装备奖池</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>5阶装备奖池</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw[4].dropId</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw[4].p</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落组4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落组4权重</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级晶片奖池,4级晶片奖池,5级晶片奖池</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3级晶片奖池</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7,12</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片单抽首次奖池,3级晶片奖池,4级晶片奖池</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,6,10</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备5连保底1,装备5连保底2,5阶装备奖池,5阶装备奖池,装备5连保底3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备单抽首次奖池,3阶装备奖池,3阶装备奖池</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +320,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -172,6 +328,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -179,109 +336,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -289,20 +351,15 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -310,47 +367,8 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -358,6 +376,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -365,11 +384,40 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,85 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,115 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797174"/>
+        <fgColor theme="0" tint="-0.34934537797173987"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +467,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -625,104 +493,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -731,272 +501,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="15" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="60" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="33">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="12" applyFill="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="13">
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="英文标题" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
-    <cellStyle name="因变Grid" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="Grid" xfId="33"/>
-    <cellStyle name="汇总" xfId="34" builtinId="25"/>
-    <cellStyle name="好" xfId="35" builtinId="26"/>
-    <cellStyle name="适中" xfId="36" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
-    <cellStyle name="纵向标题" xfId="45"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="大标题" xfId="48"/>
-    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
-    <cellStyle name="Normal" xfId="55"/>
-    <cellStyle name="常规 2" xfId="56"/>
-    <cellStyle name="超链接 2" xfId="57"/>
-    <cellStyle name="文本" xfId="58"/>
-    <cellStyle name="无效" xfId="59"/>
-    <cellStyle name="中文标题" xfId="60"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1254,19 +858,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -1277,7 +881,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="47.25" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
@@ -1319,33 +923,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.25" customWidth="1"/>
     <col min="2" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="9" width="13.625" customWidth="1"/>
+    <col min="4" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:9">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1373,8 +978,20 @@
       <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>19</v>
       </c>
@@ -1384,26 +1001,38 @@
       <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
+      <c r="D2" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
+      <c r="F2" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
+      <c r="H2" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="J2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" ht="15" spans="1:9">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1431,8 +1060,20 @@
       <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -1442,26 +1083,38 @@
       <c r="C4" s="3">
         <v>10000</v>
       </c>
-      <c r="D4" s="3">
-        <v>101</v>
+      <c r="D4" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="E4" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>102</v>
+        <v>4000</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H4" s="3">
-        <v>103</v>
+        <v>3500</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="I4" s="3">
-        <v>1000</v>
+        <v>2000</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3">
+        <v>500</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1471,26 +1124,34 @@
       <c r="C5" s="3">
         <v>10000</v>
       </c>
-      <c r="D5" s="3">
-        <v>103</v>
+      <c r="D5" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="E5" s="3">
         <v>8000</v>
       </c>
-      <c r="F5" s="3">
-        <v>104</v>
+      <c r="F5" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="G5" s="3">
         <v>1500</v>
       </c>
-      <c r="H5" s="3">
-        <v>105</v>
+      <c r="H5" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I5" s="3">
         <v>500</v>
       </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -1500,26 +1161,38 @@
       <c r="C6" s="3">
         <v>10000</v>
       </c>
-      <c r="D6" s="3">
-        <v>109</v>
+      <c r="D6" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="E6" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>110</v>
+        <v>3500</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="G6" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H6" s="3">
-        <v>111</v>
+        <v>3500</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="I6" s="3">
-        <v>1000</v>
+        <v>2900</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="3">
+        <v>100</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -1529,25 +1202,33 @@
       <c r="C7" s="3">
         <v>10000</v>
       </c>
-      <c r="D7" s="3">
-        <v>112</v>
+      <c r="D7" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="3">
         <v>9000</v>
       </c>
-      <c r="F7" s="3">
-        <v>113</v>
+      <c r="F7" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="G7" s="3">
         <v>1000</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/luckDraw.抽取晶片.xlsx
+++ b/Excel/luckDraw.抽取晶片.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B9A6C0-6870-4722-A212-8E323FFA6846}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBB6ABF-BF5C-4CCA-BCE9-F6E0014BCED5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,10 +935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1225,6 +1225,20 @@
         <v>58</v>
       </c>
     </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>150</v>
+      </c>
+      <c r="J13">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/luckDraw.抽取晶片.xlsx
+++ b/Excel/luckDraw.抽取晶片.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\UIDesigner\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBB6ABF-BF5C-4CCA-BCE9-F6E0014BCED5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E69DBD5-4B3C-48D6-B447-5690B5A14FAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="抽取晶片" sheetId="26" r:id="rId2"/>
+    <sheet name="抽奖" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>sheet名</t>
   </si>
@@ -81,9 +81,6 @@
     <t>是否导出</t>
   </si>
   <si>
-    <t>抽取晶片</t>
-  </si>
-  <si>
     <t>luckDraw.json</t>
   </si>
   <si>
@@ -151,11 +148,11 @@
   </si>
   <si>
     <t>blackBox.node</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>blackBox.dropId</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -183,7 +180,7 @@
       </rPr>
       <t>&gt;</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -200,27 +197,27 @@
       </rPr>
       <t>&gt;</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>掉落节点</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>节点掉落组</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1,3,5</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>drop_id:&gt;</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>drop_id:e&gt;</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1级晶片奖池</t>
@@ -233,81 +230,81 @@
   </si>
   <si>
     <t>4级晶片奖池</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5级晶片奖池</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>1阶装备奖池</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2阶装备奖池</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3阶装备奖池</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4阶装备奖池</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>5阶装备奖池</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>draw[4].dropId</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>draw[4].p</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>掉落组4</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>掉落组4权重</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>4级晶片奖池,4级晶片奖池,5级晶片奖池</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>3级晶片奖池</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>1,7,12</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>晶片单抽首次奖池,3级晶片奖池,4级晶片奖池</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>2,3,4,6,10</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>装备5连保底1,装备5连保底2,5阶装备奖池,5阶装备奖池,装备5连保底3</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>装备单抽首次奖池,3阶装备奖池,3阶装备奖池</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽奖</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,15 +319,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -467,7 +455,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -501,81 +489,68 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyFont="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyFont="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyBorder="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="12" applyFill="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -866,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -882,52 +857,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7" t="b">
+      <c r="G2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -935,10 +910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -951,296 +926,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="9" t="s">
+      <c r="J1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="H2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="J2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="11" t="s">
+      <c r="J3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>10000</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="3">
-        <v>4000</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>3500</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="1">
+        <v>500</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="I4" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="3">
-        <v>500</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>10000</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="3">
-        <v>8000</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="1">
+        <v>1500</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>500</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>53</v>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>10000</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="1">
+        <v>3900</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I6" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="3">
+      <c r="I6" s="1">
         <v>100</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>59</v>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>10000</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1">
         <v>9000</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1">
         <v>1000</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>50</v>
-      </c>
-      <c r="I13">
-        <v>150</v>
-      </c>
-      <c r="J13">
-        <v>300</v>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
